--- a/myClassTable.xlsx
+++ b/myClassTable.xlsx
@@ -424,15 +424,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="120" customWidth="1" min="1" max="1"/>
-    <col width="120" customWidth="1" min="2" max="2"/>
-    <col width="120" customWidth="1" min="3" max="3"/>
-    <col width="120" customWidth="1" min="4" max="4"/>
-    <col width="120" customWidth="1" min="5" max="5"/>
-    <col width="120" customWidth="1" min="6" max="6"/>
-    <col width="120" customWidth="1" min="7" max="7"/>
-    <col width="120" customWidth="1" min="8" max="8"/>
-    <col width="120" customWidth="1" min="9" max="9"/>
+    <col width="150" customWidth="1" min="1" max="1"/>
+    <col width="150" customWidth="1" min="2" max="2"/>
+    <col width="150" customWidth="1" min="3" max="3"/>
+    <col width="150" customWidth="1" min="4" max="4"/>
+    <col width="150" customWidth="1" min="5" max="5"/>
+    <col width="150" customWidth="1" min="6" max="6"/>
+    <col width="150" customWidth="1" min="7" max="7"/>
+    <col width="150" customWidth="1" min="8" max="8"/>
+    <col width="150" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="360" customHeight="1">
@@ -502,59 +502,39 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:电子电气与通信工程学院
-课程编码:180093081000P1001H
-课程名称:现代数字信号处理I
+          <t xml:space="preserve">课程名称:现代数字信号处理I
 课时/学分:60/3.0
 开课周:第2-20周
 星期节次:周一(1-3)
+教室:教二楼101
+主讲教师:张颢
 </t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200100104P2003H
-课程名称:生理学
+          <t xml:space="preserve">课程名称:生理学
 课时/学分:50/2.5
 开课周:第2-19周
 星期节次:周二(1-3)
+教室:教二楼138
+主讲教师:唐铁山等
 </t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:公共政策与管理学院
-课程编码:180096120400PB001H-17
-课程名称:学术道德与学术写作规范-通论
+          <t xml:space="preserve">课程名称:学术道德与学术写作规范-通论
 课时/学分:10/0.5
 开课周:第13-17周
 星期节次:周三(1-2)
-</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">开课院系:外语系
-课程编码:180089050200MB001H-081
-课程名称:英语A-81班（怀）
-课时/学分:32/3.0
-开课周:第2-17周
-星期节次:周四(1-2)
-</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213030500MB001H-12
-课程名称:新时代中国特色社会主义理论与实践
-课时/学分:36/2.0
-开课周:第2-10周
-星期节次:周五(1-4)
-</t>
-        </is>
-      </c>
+教室:教一楼101
+主讲教师:刘朝
+</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="1" t="n"/>
     </row>
@@ -571,56 +551,46 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:电子电气与通信工程学院
-课程编码:180093081000P1001H
-课程名称:现代数字信号处理I
+          <t xml:space="preserve">课程名称:现代数字信号处理I
 课时/学分:60/3.0
 开课周:第2-20周
 星期节次:周一(1-3)
+教室:教二楼101
+主讲教师:张颢
 </t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200100104P2003H
-课程名称:生理学
+          <t xml:space="preserve">课程名称:生理学
 课时/学分:50/2.5
 开课周:第2-19周
 星期节次:周二(1-3)
+教室:教二楼138
+主讲教师:唐铁山等
 </t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:公共政策与管理学院
-课程编码:180096120400PB001H-17
-课程名称:学术道德与学术写作规范-通论
+          <t xml:space="preserve">课程名称:学术道德与学术写作规范-通论
 课时/学分:10/0.5
 开课周:第13-17周
 星期节次:周三(1-2)
-</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">开课院系:外语系
-课程编码:180089050200MB001H-081
-课程名称:英语A-81班（怀）
-课时/学分:32/3.0
-开课周:第2-17周
-星期节次:周四(1-2)
-</t>
-        </is>
-      </c>
+教室:教一楼101
+主讲教师:刘朝
+</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="n"/>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213030500MB001H-12
-课程名称:新时代中国特色社会主义理论与实践
-课时/学分:36/2.0
-开课周:第2-10周
-星期节次:周五(1-4)
+          <t xml:space="preserve">课程名称:高级软件工程
+课时/学分:60/3.0
+开课周:第2-20周
+星期节次:周五(2-4)
+教室:教一楼207
+主讲教师:
 </t>
         </is>
       </c>
@@ -640,46 +610,46 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:电子电气与通信工程学院
-课程编码:180093081000P1001H
-课程名称:现代数字信号处理I
+          <t xml:space="preserve">课程名称:现代数字信号处理I
 课时/学分:60/3.0
 开课周:第2-20周
 星期节次:周一(1-3)
+教室:教二楼101
+主讲教师:张颢
 </t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200100104P2003H
-课程名称:生理学
+          <t xml:space="preserve">课程名称:生理学
 课时/学分:50/2.5
 开课周:第2-19周
 星期节次:周二(1-3)
+教室:教二楼138
+主讲教师:唐铁山等
 </t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:人工智能学院
-课程编码:1802060811J2P4003H
-课程名称:复杂系统与复杂网络
+          <t xml:space="preserve">课程名称:复杂系统与复杂网络
 课时/学分:20/1.0
 开课周:第3-4,6-13周
 星期节次:周三(3-4)
+教室:教一楼114
+主讲教师:
 </t>
         </is>
       </c>
       <c r="F5" s="1" t="n"/>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213030500MB001H-12
-课程名称:新时代中国特色社会主义理论与实践
-课时/学分:36/2.0
-开课周:第2-10周
-星期节次:周五(1-4)
+          <t xml:space="preserve">课程名称:高级软件工程
+课时/学分:60/3.0
+开课周:第2-20周
+星期节次:周五(2-4)
+教室:教一楼207
+主讲教师:
 </t>
         </is>
       </c>
@@ -701,24 +671,24 @@
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:人工智能学院
-课程编码:1802060811J2P4003H
-课程名称:复杂系统与复杂网络
+          <t xml:space="preserve">课程名称:复杂系统与复杂网络
 课时/学分:20/1.0
 开课周:第3-4,6-13周
 星期节次:周三(3-4)
+教室:教一楼114
+主讲教师:
 </t>
         </is>
       </c>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213030500MB001H-12
-课程名称:新时代中国特色社会主义理论与实践
-课时/学分:36/2.0
-开课周:第2-10周
-星期节次:周五(1-4)
+          <t xml:space="preserve">课程名称:高级软件工程
+课时/学分:60/3.0
+开课周:第2-20周
+星期节次:周五(2-4)
+教室:教一楼207
+主讲教师:
 </t>
         </is>
       </c>
@@ -736,28 +706,58 @@
           <t>13:30-14:20</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:人工智能发展历程及其伦理、风险议题
+课时/学分:40/1.0
+开课周:第2-15周
+星期节次:周一(5-7)
+教室:学园三344
+主讲教师:王彦雨
+</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:Python科学计算与数据处理
+课时/学分:40/1.0
+开课周:第2-13周
+星期节次:周二(5-6)
+教室:学园二204(机房)
+主讲教师:张敏洪
+</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087020204P3001H
-课程名称:投资学
+          <t xml:space="preserve">课程名称:投资学
 课时/学分:40/2.0
 开课周:第2-4,6-16周
 星期节次:周三(5-7)
-</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n"/>
+教室:教一楼424
+主讲教师:房勇等
+</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:Python科学计算与数据处理
+课时/学分:40/1.0
+开课周:第2-13周
+星期节次:周四(5-6)
+教室:学园二204(机房)
+主讲教师:张敏洪
+</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200083100M1001H
-课程名称:生物医学工程导论
+          <t xml:space="preserve">课程名称:生物医学工程导论
 课时/学分:40/2.0
 开课周:第2-16周
 星期节次:周五(5-7)
+教室:教二楼338
+主讲教师:刘奕
 </t>
         </is>
       </c>
@@ -775,28 +775,58 @@
           <t>14:20-15:10</t>
         </is>
       </c>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:人工智能发展历程及其伦理、风险议题
+课时/学分:40/1.0
+开课周:第2-15周
+星期节次:周一(5-7)
+教室:学园三344
+主讲教师:王彦雨
+</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:Python科学计算与数据处理
+课时/学分:40/1.0
+开课周:第2-13周
+星期节次:周二(5-6)
+教室:学园二204(机房)
+主讲教师:张敏洪
+</t>
+        </is>
+      </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087020204P3001H
-课程名称:投资学
+          <t xml:space="preserve">课程名称:投资学
 课时/学分:40/2.0
 开课周:第2-4,6-16周
 星期节次:周三(5-7)
-</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n"/>
+教室:教一楼424
+主讲教师:房勇等
+</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:Python科学计算与数据处理
+课时/学分:40/1.0
+开课周:第2-13周
+星期节次:周四(5-6)
+教室:学园二204(机房)
+主讲教师:张敏洪
+</t>
+        </is>
+      </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200083100M1001H
-课程名称:生物医学工程导论
+          <t xml:space="preserve">课程名称:生物医学工程导论
 课时/学分:40/2.0
 开课周:第2-16周
 星期节次:周五(5-7)
+教室:教二楼338
+主讲教师:刘奕
 </t>
         </is>
       </c>
@@ -814,28 +844,48 @@
           <t>15:30-16:20</t>
         </is>
       </c>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:人工智能发展历程及其伦理、风险议题
+课时/学分:40/1.0
+开课周:第2-15周
+星期节次:周一(5-7)
+教室:学园三344
+主讲教师:王彦雨
+</t>
+        </is>
+      </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087020204P3001H
-课程名称:投资学
+          <t xml:space="preserve">课程名称:投资学
 课时/学分:40/2.0
 开课周:第2-4,6-16周
 星期节次:周三(5-7)
-</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n"/>
+教室:教一楼424
+主讲教师:房勇等
+</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:英语A-42班（怀）
+课时/学分:32/3.0
+开课周:第2-17周
+星期节次:周四(7-8)
+教室:学园三365
+主讲教师:张文力
+</t>
+        </is>
+      </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200083100M1001H
-课程名称:生物医学工程导论
+          <t xml:space="preserve">课程名称:生物医学工程导论
 课时/学分:40/2.0
 开课周:第2-16周
 星期节次:周五(5-7)
+教室:教二楼338
+主讲教师:刘奕
 </t>
         </is>
       </c>
@@ -856,7 +906,17 @@
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:英语A-42班（怀）
+课时/学分:32/3.0
+开课周:第2-17周
+星期节次:周四(7-8)
+教室:学园三365
+主讲教师:张文力
+</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
@@ -875,57 +935,57 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200100100PB001H-2
-课程名称:学术道德与学术写作规范-分论-2
+          <t xml:space="preserve">课程名称:学术道德与学术写作规范-分论-2
 课时/学分:10/0.5
 开课周:第14-17,19周
 星期节次:周二(9-10)
+教室:教二楼104
+主讲教师:曾长青
 </t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213010108MB001H-15
-课程名称:自然辩证法概论
+          <t xml:space="preserve">课程名称:自然辩证法概论
 课时/学分:36/1.0
 开课周:第2-11周
 星期节次:周三(9-12)
+教室:教二楼101
+主讲教师:尚智丛
 </t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:体育部
-课程编码:18017B040300PX002H-01
-课程名称:健身气功《八段锦、易筋经》
-课时/学分:30/0.5
-开课周:第2-17周
-星期节次:周四(9-10)
+          <t xml:space="preserve">课程名称:新时代中国特色社会主义理论与实践
+课时/学分:36/2.0
+开课周:第11-18周
+星期节次:周四(9-12)
+教室:教一楼207
+主讲教师:常征等
 </t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087120200MX025H
-课程名称:正念领导力
+          <t xml:space="preserve">课程名称:正念领导力
 课时/学分:30/1.0
 开课周:第2-3,6-12周
 星期节次:周五(9-11)
+教室:教二楼205
+主讲教师:刘蓉晖
 </t>
         </is>
       </c>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087120200MX025H
-课程名称:正念领导力
+          <t xml:space="preserve">课程名称:正念领导力
 课时/学分:30/1.0
 开课周:第5周
 星期节次:周日(9-11)
+教室:教二楼205
+主讲教师:刘蓉晖
 </t>
         </is>
       </c>
@@ -943,68 +1003,68 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:人工智能学院
-课程编码:1802060811J2P2001H
-课程名称:计算博弈原理与应用
+          <t xml:space="preserve">课程名称:计算博弈原理与应用
 课时/学分:40/2.0
 开课周:第2-4,6-15周
 星期节次:周一(10-12)
+教室:教一楼215
+主讲教师:李凯
 </t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:存济医学院
-课程编码:180200100100PB001H-2
-课程名称:学术道德与学术写作规范-分论-2
+          <t xml:space="preserve">课程名称:学术道德与学术写作规范-分论-2
 课时/学分:10/0.5
 开课周:第14-17,19周
 星期节次:周二(9-10)
+教室:教二楼104
+主讲教师:曾长青
 </t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213010108MB001H-15
-课程名称:自然辩证法概论
+          <t xml:space="preserve">课程名称:自然辩证法概论
 课时/学分:36/1.0
 开课周:第2-11周
 星期节次:周三(9-12)
+教室:教二楼101
+主讲教师:尚智丛
 </t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:体育部
-课程编码:18017B040300PX002H-01
-课程名称:健身气功《八段锦、易筋经》
-课时/学分:30/0.5
-开课周:第2-17周
-星期节次:周四(9-10)
+          <t xml:space="preserve">课程名称:新时代中国特色社会主义理论与实践
+课时/学分:36/2.0
+开课周:第11-18周
+星期节次:周四(9-12)
+教室:教一楼207
+主讲教师:常征等
 </t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087120200MX025H
-课程名称:正念领导力
+          <t xml:space="preserve">课程名称:正念领导力
 课时/学分:30/1.0
 开课周:第2-3,6-12周
 星期节次:周五(9-11)
+教室:教二楼205
+主讲教师:刘蓉晖
 </t>
         </is>
       </c>
       <c r="H12" s="1" t="n"/>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087120200MX025H
-课程名称:正念领导力
+          <t xml:space="preserve">课程名称:正念领导力
 课时/学分:30/1.0
 开课周:第5周
 星期节次:周日(9-11)
+教室:教二楼205
+主讲教师:刘蓉晖
 </t>
         </is>
       </c>
@@ -1022,48 +1082,58 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:人工智能学院
-课程编码:1802060811J2P2001H
-课程名称:计算博弈原理与应用
+          <t xml:space="preserve">课程名称:计算博弈原理与应用
 课时/学分:40/2.0
 开课周:第2-4,6-15周
 星期节次:周一(10-12)
+教室:教一楼215
+主讲教师:李凯
 </t>
         </is>
       </c>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213010108MB001H-15
-课程名称:自然辩证法概论
+          <t xml:space="preserve">课程名称:自然辩证法概论
 课时/学分:36/1.0
 开课周:第2-11周
 星期节次:周三(9-12)
-</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="n"/>
+教室:教二楼101
+主讲教师:尚智丛
+</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:新时代中国特色社会主义理论与实践
+课时/学分:36/2.0
+开课周:第11-18周
+星期节次:周四(9-12)
+教室:教一楼207
+主讲教师:常征等
+</t>
+        </is>
+      </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087120200MX025H
-课程名称:正念领导力
+          <t xml:space="preserve">课程名称:正念领导力
 课时/学分:30/1.0
 开课周:第2-3,6-12周
 星期节次:周五(9-11)
+教室:教二楼205
+主讲教师:刘蓉晖
 </t>
         </is>
       </c>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:经济与管理学院
-课程编码:180087120200MX025H
-课程名称:正念领导力
+          <t xml:space="preserve">课程名称:正念领导力
 课时/学分:30/1.0
 开课周:第5周
 星期节次:周日(9-11)
+教室:教二楼205
+主讲教师:刘蓉晖
 </t>
         </is>
       </c>
@@ -1081,28 +1151,38 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:人工智能学院
-课程编码:1802060811J2P2001H
-课程名称:计算博弈原理与应用
+          <t xml:space="preserve">课程名称:计算博弈原理与应用
 课时/学分:40/2.0
 开课周:第2-4,6-15周
 星期节次:周一(10-12)
+教室:教一楼215
+主讲教师:李凯
 </t>
         </is>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">开课院系:马克思主义学院
-课程编码:180213010108MB001H-15
-课程名称:自然辩证法概论
+          <t xml:space="preserve">课程名称:自然辩证法概论
 课时/学分:36/1.0
 开课周:第2-11周
 星期节次:周三(9-12)
-</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="n"/>
+教室:教二楼101
+主讲教师:尚智丛
+</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课程名称:新时代中国特色社会主义理论与实践
+课时/学分:36/2.0
+开课周:第11-18周
+星期节次:周四(9-12)
+教室:教一楼207
+主讲教师:常征等
+</t>
+        </is>
+      </c>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
